--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H2">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I2">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J2">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>89.6143273954587</v>
+        <v>99.59053764884251</v>
       </c>
       <c r="R2">
-        <v>89.6143273954587</v>
+        <v>398.3621505953701</v>
       </c>
       <c r="S2">
-        <v>0.0009857645827442134</v>
+        <v>0.0006637510596610601</v>
       </c>
       <c r="T2">
-        <v>0.0009857645827442134</v>
+        <v>0.0003215308854158687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H3">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I3">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J3">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>506.2519390364705</v>
+        <v>587.690964091803</v>
       </c>
       <c r="R3">
-        <v>506.2519390364705</v>
+        <v>3526.145784550818</v>
       </c>
       <c r="S3">
-        <v>0.005568810768901948</v>
+        <v>0.003916842999127017</v>
       </c>
       <c r="T3">
-        <v>0.005568810768901948</v>
+        <v>0.002846065507271702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H4">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I4">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J4">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>1021.271104109348</v>
+        <v>1220.703418677635</v>
       </c>
       <c r="R4">
-        <v>1021.271104109348</v>
+        <v>7324.220512065809</v>
       </c>
       <c r="S4">
-        <v>0.01123406170721414</v>
+        <v>0.008135744688276375</v>
       </c>
       <c r="T4">
-        <v>0.01123406170721414</v>
+        <v>0.005911613597592014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H5">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I5">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J5">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>699.0509511490942</v>
+        <v>768.8715211230431</v>
       </c>
       <c r="R5">
-        <v>699.0509511490942</v>
+        <v>4613.229126738258</v>
       </c>
       <c r="S5">
-        <v>0.007689614922126315</v>
+        <v>0.00512437525629286</v>
       </c>
       <c r="T5">
-        <v>0.007689614922126315</v>
+        <v>0.003723485385169187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H6">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I6">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J6">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>78.4526980055691</v>
+        <v>92.22489475064233</v>
       </c>
       <c r="R6">
-        <v>78.4526980055691</v>
+        <v>553.3493685038541</v>
       </c>
       <c r="S6">
-        <v>0.0008629857899099368</v>
+        <v>0.0006146605195938518</v>
       </c>
       <c r="T6">
-        <v>0.0008629857899099368</v>
+        <v>0.0004466260465093088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H7">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I7">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J7">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>376.0979879115721</v>
+        <v>449.5272134482545</v>
       </c>
       <c r="R7">
-        <v>376.0979879115721</v>
+        <v>1798.108853793018</v>
       </c>
       <c r="S7">
-        <v>0.004137107166899038</v>
+        <v>0.002996009172325523</v>
       </c>
       <c r="T7">
-        <v>0.004137107166899038</v>
+        <v>0.001451311403380353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J8">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>2281.149891415661</v>
+        <v>2483.681946899495</v>
       </c>
       <c r="R8">
-        <v>2281.149891415661</v>
+        <v>14902.09168139697</v>
       </c>
       <c r="S8">
-        <v>0.0250928265182998</v>
+        <v>0.01655324454546456</v>
       </c>
       <c r="T8">
-        <v>0.0250928265182998</v>
+        <v>0.01202795678682559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J9">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>12886.74020467552</v>
+        <v>14656.38676454856</v>
       </c>
       <c r="R9">
-        <v>12886.74020467552</v>
+        <v>131907.4808809371</v>
       </c>
       <c r="S9">
-        <v>0.1417551461914872</v>
+        <v>0.09768189303358493</v>
       </c>
       <c r="T9">
-        <v>0.1417551461914872</v>
+        <v>0.1064667641171164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J10">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>25996.65182961637</v>
+        <v>30443.04323547725</v>
       </c>
       <c r="R10">
-        <v>25996.65182961637</v>
+        <v>273987.3891192953</v>
       </c>
       <c r="S10">
-        <v>0.2859651953920376</v>
+        <v>0.2028968081094635</v>
       </c>
       <c r="T10">
-        <v>0.2859651953920376</v>
+        <v>0.2211440210488036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J11">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>17794.47603585519</v>
+        <v>19174.83690299819</v>
       </c>
       <c r="R11">
-        <v>17794.47603585519</v>
+        <v>172573.5321269837</v>
       </c>
       <c r="S11">
-        <v>0.1957406226710753</v>
+        <v>0.1277964615279991</v>
       </c>
       <c r="T11">
-        <v>0.1957406226710753</v>
+        <v>0.1392896400955865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J12">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>1997.028474553263</v>
+        <v>2299.990657290508</v>
       </c>
       <c r="R12">
-        <v>1997.028474553263</v>
+        <v>20699.91591561458</v>
       </c>
       <c r="S12">
-        <v>0.02196746879836618</v>
+        <v>0.01532897875669673</v>
       </c>
       <c r="T12">
-        <v>0.02196746879836618</v>
+        <v>0.01670756692731577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J13">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>9573.646415936924</v>
+        <v>11210.72996531254</v>
       </c>
       <c r="R13">
-        <v>9573.646415936924</v>
+        <v>67264.37979187527</v>
       </c>
       <c r="S13">
-        <v>0.105310856409161</v>
+        <v>0.07471727806398368</v>
       </c>
       <c r="T13">
-        <v>0.105310856409161</v>
+        <v>0.05429124117114927</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H14">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I14">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J14">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>167.5120610620608</v>
+        <v>1543.30547074836</v>
       </c>
       <c r="R14">
-        <v>167.5120610620608</v>
+        <v>9259.83282449016</v>
       </c>
       <c r="S14">
-        <v>0.001842645721691078</v>
+        <v>0.01028582298854414</v>
       </c>
       <c r="T14">
-        <v>0.001842645721691078</v>
+        <v>0.007473908458450445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H15">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I15">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J15">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>946.3141462908688</v>
+        <v>9107.157179834736</v>
       </c>
       <c r="R15">
-        <v>946.3141462908688</v>
+        <v>81964.41461851263</v>
       </c>
       <c r="S15">
-        <v>0.01040952933169744</v>
+        <v>0.06069738522679213</v>
       </c>
       <c r="T15">
-        <v>0.01040952933169744</v>
+        <v>0.06615611138130562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H16">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I16">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J16">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>1909.01647676879</v>
+        <v>18916.63915751855</v>
       </c>
       <c r="R16">
-        <v>1909.01647676879</v>
+        <v>170249.752417667</v>
       </c>
       <c r="S16">
-        <v>0.02099932996617212</v>
+        <v>0.1260756250789733</v>
       </c>
       <c r="T16">
-        <v>0.02099932996617212</v>
+        <v>0.1374140428624374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H17">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I17">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J17">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>1306.704731461421</v>
+        <v>11914.82296275761</v>
       </c>
       <c r="R17">
-        <v>1306.704731461421</v>
+        <v>107233.4066648185</v>
       </c>
       <c r="S17">
-        <v>0.0143738538447618</v>
+        <v>0.07940991738682732</v>
       </c>
       <c r="T17">
-        <v>0.0143738538447618</v>
+        <v>0.08655152639267771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H18">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I18">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J18">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>146.6481255926748</v>
+        <v>1429.163733503675</v>
       </c>
       <c r="R18">
-        <v>146.6481255926748</v>
+        <v>12862.47360153307</v>
       </c>
       <c r="S18">
-        <v>0.00161314080612527</v>
+        <v>0.009525091087338318</v>
       </c>
       <c r="T18">
-        <v>0.00161314080612527</v>
+        <v>0.01038171553085102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H19">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I19">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J19">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>703.0231766215778</v>
+        <v>6966.101641213703</v>
       </c>
       <c r="R19">
-        <v>703.0231766215778</v>
+        <v>41796.60984728223</v>
       </c>
       <c r="S19">
-        <v>0.007733309711779417</v>
+        <v>0.04642767731976377</v>
       </c>
       <c r="T19">
-        <v>0.007733309711779417</v>
+        <v>0.03373538613418276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H20">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I20">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J20">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>127.8834751727548</v>
+        <v>187.5970066207075</v>
       </c>
       <c r="R20">
-        <v>127.8834751727548</v>
+        <v>1125.582039724245</v>
       </c>
       <c r="S20">
-        <v>0.001406728189648154</v>
+        <v>0.001250296613246416</v>
       </c>
       <c r="T20">
-        <v>0.001406728189648154</v>
+        <v>0.0009084934130911942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H21">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I21">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J21">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>722.4431534394386</v>
+        <v>1107.023501272777</v>
       </c>
       <c r="R21">
-        <v>722.4431534394386</v>
+        <v>9963.211511454992</v>
       </c>
       <c r="S21">
-        <v>0.007946930969687011</v>
+        <v>0.007378090724144643</v>
       </c>
       <c r="T21">
-        <v>0.007946930969687011</v>
+        <v>0.008041627986182813</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H22">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I22">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J22">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>1457.397513130676</v>
+        <v>2299.418325494401</v>
       </c>
       <c r="R22">
-        <v>1457.397513130676</v>
+        <v>20694.76492944961</v>
       </c>
       <c r="S22">
-        <v>0.01603148618282794</v>
+        <v>0.01532516427948723</v>
       </c>
       <c r="T22">
-        <v>0.01603148618282794</v>
+        <v>0.01670340940095461</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H23">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I23">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J23">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>997.5755836593614</v>
+        <v>1448.31024356127</v>
       </c>
       <c r="R23">
-        <v>997.5755836593614</v>
+        <v>13034.79219205143</v>
       </c>
       <c r="S23">
-        <v>0.01097340913626741</v>
+        <v>0.009652698756094466</v>
       </c>
       <c r="T23">
-        <v>0.01097340913626741</v>
+        <v>0.01052079939938667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H24">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I24">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J24">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>111.9553530023956</v>
+        <v>173.7224700215421</v>
       </c>
       <c r="R24">
-        <v>111.9553530023956</v>
+        <v>1563.502230193879</v>
       </c>
       <c r="S24">
-        <v>0.001231517604895624</v>
+        <v>0.001157825595543168</v>
       </c>
       <c r="T24">
-        <v>0.001231517604895624</v>
+        <v>0.001261952862922831</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H25">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I25">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J25">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>536.7079026031937</v>
+        <v>846.7667875716155</v>
       </c>
       <c r="R25">
-        <v>536.7079026031937</v>
+        <v>5080.600725429693</v>
       </c>
       <c r="S25">
-        <v>0.005903828740804344</v>
+        <v>0.005643531662799331</v>
       </c>
       <c r="T25">
-        <v>0.005903828740804344</v>
+        <v>0.004100716012428568</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H26">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I26">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J26">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>47.34082921272501</v>
+        <v>49.3332621554625</v>
       </c>
       <c r="R26">
-        <v>47.34082921272501</v>
+        <v>295.999572932775</v>
       </c>
       <c r="S26">
-        <v>0.000520752809421988</v>
+        <v>0.0003287963475775621</v>
       </c>
       <c r="T26">
-        <v>0.000520752809421988</v>
+        <v>0.0002389107615408588</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H27">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I27">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J27">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>267.439228537366</v>
+        <v>291.119147284515</v>
       </c>
       <c r="R27">
-        <v>267.439228537366</v>
+        <v>2620.072325560635</v>
       </c>
       <c r="S27">
-        <v>0.002941852348734258</v>
+        <v>0.001940251022432018</v>
       </c>
       <c r="T27">
-        <v>0.002941852348734258</v>
+        <v>0.00211474451935775</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H28">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I28">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J28">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>539.5099458391052</v>
+        <v>604.6887906161733</v>
       </c>
       <c r="R28">
-        <v>539.5099458391052</v>
+        <v>5442.19911554556</v>
       </c>
       <c r="S28">
-        <v>0.005934651434692236</v>
+        <v>0.004030130120914302</v>
       </c>
       <c r="T28">
-        <v>0.005934651434692236</v>
+        <v>0.004392573686068354</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H29">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I29">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J29">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>369.2897402811874</v>
+        <v>380.868917980715</v>
       </c>
       <c r="R29">
-        <v>369.2897402811874</v>
+        <v>3427.820261826434</v>
       </c>
       <c r="S29">
-        <v>0.004062215912569036</v>
+        <v>0.002538415334125864</v>
       </c>
       <c r="T29">
-        <v>0.004062215912569036</v>
+        <v>0.002766703820090076</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H30">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I30">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J30">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>41.444441815309</v>
+        <v>45.68461037971166</v>
       </c>
       <c r="R30">
-        <v>41.444441815309</v>
+        <v>411.161493417405</v>
       </c>
       <c r="S30">
-        <v>0.0004558920886930101</v>
+        <v>0.0003044788115981089</v>
       </c>
       <c r="T30">
-        <v>0.0004558920886930101</v>
+        <v>0.000331861646067099</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H31">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I31">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J31">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>198.6824108426386</v>
+        <v>222.6782221545225</v>
       </c>
       <c r="R31">
-        <v>198.6824108426386</v>
+        <v>1336.069332927135</v>
       </c>
       <c r="S31">
-        <v>0.002185521997600052</v>
+        <v>0.001484105914154818</v>
       </c>
       <c r="T31">
-        <v>0.002185521997600052</v>
+        <v>0.001078384467377267</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H32">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I32">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J32">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>226.7616766467782</v>
+        <v>279.1077984437138</v>
       </c>
       <c r="R32">
-        <v>226.7616766467782</v>
+        <v>1116.431193774855</v>
       </c>
       <c r="S32">
-        <v>0.002494396108957655</v>
+        <v>0.001860197779330231</v>
       </c>
       <c r="T32">
-        <v>0.002494396108957655</v>
+        <v>0.0009011074714398244</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H33">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I33">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J33">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>1281.028847039141</v>
+        <v>1647.035300997125</v>
       </c>
       <c r="R33">
-        <v>1281.028847039141</v>
+        <v>9882.211805982746</v>
       </c>
       <c r="S33">
-        <v>0.01409141711583982</v>
+        <v>0.01097716160736803</v>
       </c>
       <c r="T33">
-        <v>0.01409141711583982</v>
+        <v>0.007976250522535746</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H34">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I34">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J34">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>2584.242437671614</v>
+        <v>3421.086498610639</v>
       </c>
       <c r="R34">
-        <v>2584.242437671614</v>
+        <v>20526.51899166383</v>
       </c>
       <c r="S34">
-        <v>0.02842686813950625</v>
+        <v>0.02280085881905418</v>
       </c>
       <c r="T34">
-        <v>0.02842686813950625</v>
+        <v>0.01656761270123544</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H35">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I35">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J35">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>1768.89087215452</v>
+        <v>2154.803484477584</v>
       </c>
       <c r="R35">
-        <v>1768.89087215452</v>
+        <v>12928.82090686551</v>
       </c>
       <c r="S35">
-        <v>0.01945793739894557</v>
+        <v>0.01436133522269387</v>
       </c>
       <c r="T35">
-        <v>0.01945793739894557</v>
+        <v>0.01043526657177349</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H36">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I36">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J36">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>198.5180925221979</v>
+        <v>258.4651910035568</v>
       </c>
       <c r="R36">
-        <v>198.5180925221979</v>
+        <v>1550.791146021341</v>
       </c>
       <c r="S36">
-        <v>0.002183714483274004</v>
+        <v>0.001722618920072705</v>
       </c>
       <c r="T36">
-        <v>0.002183714483274004</v>
+        <v>0.001251693338662096</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H37">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I37">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J37">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>951.6849905702657</v>
+        <v>1259.824013888512</v>
       </c>
       <c r="R37">
-        <v>951.6849905702657</v>
+        <v>5039.296055554047</v>
       </c>
       <c r="S37">
-        <v>0.01046860903718583</v>
+        <v>0.008396475648654846</v>
       </c>
       <c r="T37">
-        <v>0.01046860903718583</v>
+        <v>0.004067377686844478</v>
       </c>
     </row>
   </sheetData>
